--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47B91BD-797D-4E56-955A-9CFA9FC441B1}"/>
+  <xr:revisionPtr revIDLastSave="676" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E99B299-F949-4637-88F5-F05BED092AD9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34650" yWindow="2535" windowWidth="9600" windowHeight="4845" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table S1" sheetId="3" r:id="rId2"/>
+    <sheet name="Table S2" sheetId="2" r:id="rId3"/>
+    <sheet name="Table S3" sheetId="6" r:id="rId4"/>
+    <sheet name="Table S4" sheetId="5" r:id="rId5"/>
+    <sheet name="Table S5" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$M$12</definedName>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
   <si>
     <t>Lake</t>
   </si>
@@ -90,24 +94,6 @@
     <t>L378</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>O, I</t>
-  </si>
-  <si>
-    <t>C, I</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>C, I, O</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -335,16 +321,610 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>∆AIC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized N excr ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(DOC, by = Troph. position)  + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized N excr ~ Lake + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized N excr ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized P excr ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(DOC, by = Troph. position)  + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized P excr ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized P excr ~ Lake + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized N:P excr ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(DOC, by = Troph. position)  + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized N:P excr ~ Lake + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass-normalized N:P excr ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Troph. position)</t>
+    </r>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>null value</t>
+  </si>
+  <si>
+    <t>conf low</t>
+  </si>
+  <si>
+    <t>conf high</t>
+  </si>
+  <si>
+    <t>p adj</t>
+  </si>
+  <si>
+    <t>Mass-normalized C3 excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized SUVA excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized C5 excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized FI excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized C4 excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized C2 excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized BA excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized C1 excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized C7 excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized HIX excr</t>
+  </si>
+  <si>
+    <t>Mass-normalized SR excr</t>
+  </si>
+  <si>
+    <t>group 1</t>
+  </si>
+  <si>
+    <t>group 2</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>null model</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>YP</t>
+  </si>
+  <si>
+    <t>FM, WS, PD</t>
+  </si>
+  <si>
+    <t>WS, PD</t>
+  </si>
+  <si>
+    <t>FM, WS, PD, YP</t>
+  </si>
+  <si>
+    <t>WS, PD, YP</t>
+  </si>
+  <si>
+    <t>PD, YP</t>
+  </si>
+  <si>
+    <t>FM, WS</t>
+  </si>
+  <si>
+    <t>mean (± SD)</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Mass-normalized N excretion (µg N/g/h)</t>
+  </si>
+  <si>
+    <t>Mass-normalized P excretion (µg P/g/h)</t>
+  </si>
+  <si>
+    <t>Mass-normalized N:P excretion</t>
+  </si>
+  <si>
+    <t>Individual dry mass (g)</t>
+  </si>
+  <si>
+    <t>Mass-normalized DOC excretion (mg C/g/h)</t>
+  </si>
+  <si>
+    <t>Mass-normalized DOC:N excretion (molar)</t>
+  </si>
+  <si>
+    <t>Mass-normalized DOC:P excretion (molar)</t>
+  </si>
+  <si>
+    <t>94.07 ± 56.02</t>
+  </si>
+  <si>
+    <t>36.58 ± 32.57</t>
+  </si>
+  <si>
+    <t>9.73 ± 12.12</t>
+  </si>
+  <si>
+    <t>0.83 ± 3.76</t>
+  </si>
+  <si>
+    <t>0.01 ± 0.08</t>
+  </si>
+  <si>
+    <t>0.06 ± 0.16</t>
+  </si>
+  <si>
+    <t>6.734 ± 14.03</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Response variable</t>
+  </si>
+  <si>
+    <t>Mass-normalized N excretion</t>
+  </si>
+  <si>
+    <t>Mass-normalized P excretion</t>
+  </si>
+  <si>
+    <t>edf</t>
+  </si>
+  <si>
+    <t>ref. df</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> adj.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deviance explained (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>estimated degrees of freedom (edf), reference degrees of freedom (ref. df), R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> adjusted (R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> adj.)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>Predictor</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DOC)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:carnivores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DOC)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:omnivores</t>
+    </r>
+  </si>
+  <si>
+    <t>standard deviation (SD), minimum (min), maximum (max), sample size (n), coefficient of variation (CV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +957,34 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +994,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -414,11 +1022,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -433,14 +1050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -448,6 +1058,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1792,10 +2488,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2097,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1C4D6-4894-4E08-BEFA-8BF0F75F7B5F}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
@@ -2123,34 +2815,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -2195,7 +2887,7 @@
         <v>3.79</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2228,16 +2920,16 @@
         <v>6.6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K3" s="5">
         <v>349</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2279,7 +2971,7 @@
         <v>1.17</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2321,7 +3013,7 @@
         <v>2.96</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2363,7 +3055,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2405,7 +3097,7 @@
         <v>0.87</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2447,7 +3139,7 @@
         <v>1.3</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2489,7 +3181,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2531,91 +3223,91 @@
         <v>1.45</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>4.24</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f>3.33/4.24</f>
         <v>0.785377358490566</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>1.7</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>10.91</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>0.84</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
         <v>12.4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>7.21</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <v>5.6</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="M11" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>26.132999999999999</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>7.27</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>13.11</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>5.0579999999999998</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>0.503</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>3.13</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$2331:$D$2364)</f>
         <v>14.551764705882354</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>6.51</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <v>4.7</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="9">
         <v>296</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="9">
         <v>1.37</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>17</v>
+      <c r="M12" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2624,13 +3316,1762 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0540222E-1C41-4607-9C02-82045FD0625E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A56B11-718E-4AE7-9179-87FD14790215}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="21">
+        <v>353</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36">
+        <v>4.2620392137853598</v>
+      </c>
+      <c r="E2" s="36">
+        <v>352.56527253677598</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0.59551488293251775</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="21">
+        <v>353</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1.8475515119346599</v>
+      </c>
+      <c r="E3" s="36">
+        <v>277.889460280744</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.89028944637014551</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="22">
+        <v>353</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.18802276820660199</v>
+      </c>
+      <c r="E4" s="36">
+        <v>133.637304682814</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1.2454107763584301</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="21">
+        <v>77</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>32.569603752361502</v>
+      </c>
+      <c r="F5" s="37">
+        <v>4.517437545870262</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="21">
+        <v>77</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.71689651161644896</v>
+      </c>
+      <c r="F6" s="37">
+        <v>6.2271751379969018</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="21">
+        <v>77</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1.1515346814690299</v>
+      </c>
+      <c r="F7" s="37">
+        <v>2.50109746018421</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="23">
+        <v>353</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="E8" s="40">
+        <v>104</v>
+      </c>
+      <c r="F8" s="41">
+        <v>2.0824385081391821</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0540222E-1C41-4607-9C02-82045FD0625E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3673</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2-MIN($C$3:$C$4)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3648</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D4" si="0">C3-MIN($C$3:$C$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3765</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3156</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5-MIN($C$5:$C$7)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3067</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:D7" si="1">C6-MIN($C$5:$C$7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3174</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>366</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8-MIN($C$8:$C$10)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>293</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D10" si="2">C9-MIN($C$8:$C$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>401</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E923F64B-CDC3-48DA-AA7A-E7DEEA8E7B85}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3.5840000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2.7589999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="C5" s="21">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3.0179999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2.23</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2.6739999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3.964</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2.9620000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="21">
+        <v>4.4960000000000004</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3.59</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="23">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23">
+        <v>7.49</v>
+      </c>
+      <c r="D13" s="23">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3D7D9E-1D72-47A2-A573-6B5699B9C522}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.9189234649999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>76</v>
+      </c>
+      <c r="G2" s="17">
+        <v>6.2400000000000002E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.0854249930000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>76</v>
+      </c>
+      <c r="G3" s="17">
+        <v>2.1900000000000001E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.7573114350000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>76</v>
+      </c>
+      <c r="G4" s="17">
+        <v>8.5599999999999999E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.3150029769999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>76</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5.1600000000000001E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.880580589</v>
+      </c>
+      <c r="F6" s="2">
+        <v>76</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.1857208669999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.485316162</v>
+      </c>
+      <c r="F8" s="2">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-6.2599383999999994E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-3.2760929079999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-4.5582237729999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="7">
+        <v>77</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-6.1089230160000003</v>
+      </c>
+      <c r="F12" s="7">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED17F3-BA40-46B4-BCE1-E4A263638908}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.6590512267559401</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-2.1169966698863298</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.2011057836255601</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1.54E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.98455793193682895</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1.3360520903387001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-0.63306377353495402</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2.0199999999999999E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.89666683243939804</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1.27129609033104</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-0.52203757454775102</v>
+      </c>
+      <c r="H4" s="16">
+        <v>8.2600000000000001E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.91228335731575105</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1.3006476181239399</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-0.52391909650755797</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2.17E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.72146897563760803</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1.0820965839430601</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.360841367332152</v>
+      </c>
+      <c r="H6" s="16">
+        <v>3.54E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.75830885010726601</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1.16510073114817</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-0.35151696906635899</v>
+      </c>
+      <c r="H7" s="17">
+        <v>9.87E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.54585099019537697</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.85311035275009905</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.238591627640655</v>
+      </c>
+      <c r="H8" s="17">
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1.1393898097203099</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1.9033922393060201</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.37538738013459499</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.76238439431655003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.23563227798311401</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.2891365106499799</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.64694053709849897</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.7206315654136701E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.2666747585428599</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.55238469834548798</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1.08742339651919</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1.7346000171776701E-2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.79339295958529599</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.6971437722720201E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.55981448144787</v>
+      </c>
+      <c r="H13" s="17">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.51769456582464202</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1.07103886014147</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.5649728492193E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.0099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.55070916692623895</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.117846082450248</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.21926441630272</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.47838145262370002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1.0612144066648399</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.10445150141744799</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.1874998528359599</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-0.42968755730743102</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.80468726297936</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.36648302538823602</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.93925731951573299</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.20629126873925899</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-0.88997265156887395</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-2.3047169277489901</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.52477162461124904</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.18590167295725099</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-0.49627389856786203</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.12447055265336</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.26827429782064199</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-0.216357240622781</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.75290583626406704</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.35582375836874203</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1.03803242163867</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.32638490490119498</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.22624908182956199</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-0.25398336292595902</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.70648152658508401</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.17561798544223001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-0.246542860649512</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.59777883153397204</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.193090290954187</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-0.33266749469552898</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.71884807660390404</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.29752720126709198</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-0.64090798641138802</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.23596238894557</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-0.16187080745589999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-0.71521510177273495</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.39147348686093503</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.22710645240455901</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-0.59765343011862404</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.05186633492774</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.14645242248679699</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-0.63456891642443303</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.92747376139802695</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.0867076383627196E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-0.42099404707835097</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.58272819984560498</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.8383524513509805E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-0.45397009406882699</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.59073714309584702</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-7.5184006866455502E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-0.633441481853938</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.48307346812102703</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>7.2327714302538898E-2</v>
+      </c>
+      <c r="F33" s="15">
+        <v>-0.51050523973860995</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.65516066834368702</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1.2483551870117401E-2</v>
+      </c>
+      <c r="F34" s="7">
+        <v>-0.42214093021975402</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.44710803395998899</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="676" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E99B299-F949-4637-88F5-F05BED092AD9}"/>
+  <xr:revisionPtr revIDLastSave="719" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A82052E-A9C3-43AB-A051-FCA0BB950751}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
   <si>
     <t>Lake</t>
   </si>
@@ -915,6 +915,12 @@
   <si>
     <t>standard deviation (SD), minimum (min), maximum (max), sample size (n), coefficient of variation (CV)</t>
   </si>
+  <si>
+    <t>WRT (yr)</t>
+  </si>
+  <si>
+    <t>Lake surface area (Area), mean depth (Zmean), max depth (Zmax), and water retention time (WRT)</t>
+  </si>
 </sst>
 </file>
 
@@ -922,7 +928,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1035,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1073,7 +1079,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1082,17 +1087,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1116,16 +1115,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1137,15 +1133,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2787,27 +2784,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1C4D6-4894-4E08-BEFA-8BF0F75F7B5F}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7.81640625" customWidth="1"/>
     <col min="3" max="3" width="7.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="4" max="5" width="6.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2821,34 +2818,37 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2861,36 +2861,39 @@
       <c r="D2" s="3">
         <v>4.26</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="F2" s="4">
         <v>6.335</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>3.38</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$16:$D$31)</f>
         <v>11.084375</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>6.08</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>2.7</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>283</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>3.79</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2904,35 +2907,38 @@
       <c r="D3" s="3">
         <v>6.3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F3" s="5">
         <v>10.039999999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1.296</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>2.25</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>21.88</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>6.6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>349</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2945,36 +2951,39 @@
       <c r="D4" s="3">
         <v>27.29</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
+        <v>13.42</v>
+      </c>
+      <c r="F4" s="5">
         <v>3.4620000000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>0.433</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>4.38</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$195:$D$233)</f>
         <v>12.023589743589747</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>5.85</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>1.4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>184</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>1.17</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2987,36 +2996,39 @@
       <c r="D5" s="3">
         <v>31.46</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
+        <v>6.65</v>
+      </c>
+      <c r="F5" s="5">
         <v>7.1559999999999997</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>4.38</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$603:$D$644)</f>
         <v>17.215476190476188</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>6.61</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>5.4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>290</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>2.96</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3029,36 +3041,39 @@
       <c r="D6" s="3">
         <v>21.23</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
+        <v>16.03</v>
+      </c>
+      <c r="F6" s="5">
         <v>3.9550000000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>3.63</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$1116:$D$1145)</f>
         <v>18.313333333333333</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>6.05</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>1.8</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>217</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3071,36 +3086,39 @@
       <c r="D7" s="3">
         <v>25.89</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
+        <v>5.13</v>
+      </c>
+      <c r="F7" s="5">
         <v>5.6909999999999998</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>3.63</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$1475:$D$1514)</f>
         <v>30.526000000000003</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>6.07</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>4.5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>205</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>0.87</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3113,36 +3131,39 @@
       <c r="D8" s="3">
         <v>18.149999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F8" s="5">
         <v>5.26</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>0.55500000000000005</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f>AVERAGE(6.38, 5.63)</f>
         <v>6.0049999999999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17.57</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6.49</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>3.5</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>234</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>1.3</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3155,36 +3176,39 @@
       <c r="D9" s="3">
         <v>16.62</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
+        <v>6.22</v>
+      </c>
+      <c r="F9" s="5">
         <v>7.2439999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>0.65500000000000003</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>3.38</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$1753:$D$1784)</f>
         <v>14.975000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5.91</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>3.8</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>256</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3197,36 +3221,39 @@
       <c r="D10" s="3">
         <v>17.93</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="F10" s="5">
         <v>6.8129999999999997</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>0.64300000000000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>2.88</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$2042:$D$2070)</f>
         <v>15.971379310344831</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6.49</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>0.7</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>258</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>1.45</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3240,35 +3267,38 @@
       <c r="D11" s="3">
         <v>1.7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="5">
         <v>10.91</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>0.84</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>12.4</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>7.21</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>5.6</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3281,33 +3311,41 @@
       <c r="D12" s="8">
         <v>13.11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
+        <v>2.09</v>
+      </c>
+      <c r="F12" s="9">
         <v>5.0579999999999998</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>0.503</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>3.13</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$2331:$D$2364)</f>
         <v>14.551764705882354</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>6.51</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="9">
         <v>4.7</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>296</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>1.37</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3369,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3346,168 +3384,168 @@
       <c r="E1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>353</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="32">
         <v>4.2620392137853598</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="32">
         <v>352.56527253677598</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <v>0.59551488293251775</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>353</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="32">
         <v>1.8475515119346599</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <v>277.889460280744</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="33">
         <v>0.89028944637014551</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>353</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="32">
         <v>0.18802276820660199</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>133.637304682814</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="33">
         <v>1.2454107763584301</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>77</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="34">
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>32.569603752361502</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>4.517437545870262</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>77</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="34">
         <v>0</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <v>0.71689651161644896</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>6.2271751379969018</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>77</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="34">
         <v>0</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>1.1515346814690299</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>2.50109746018421</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>353</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="36">
         <v>0.17249999999999999</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="36">
         <v>104</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="37">
         <v>2.0824385081391821</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3687,7 +3725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E923F64B-CDC3-48DA-AA7A-E7DEEA8E7B85}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3697,123 +3735,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>3.5840000000000001</v>
       </c>
       <c r="C4" s="5">
         <v>2.9260000000000002</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>2.7589999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B5">
         <v>3.8780000000000001</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>3.1829999999999998</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>3.0179999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.02</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>3.6480000000000001</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>2.23</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>2.6739999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>3.964</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>2.5720000000000001</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>2.9620000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.03</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3821,13 +3859,13 @@
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>4.4960000000000004</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>3.59</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>0.77200000000000002</v>
       </c>
     </row>
@@ -3835,37 +3873,37 @@
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.24</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.03</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>28</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>7.49</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>13.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
+      <c r="A15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3934,7 +3972,7 @@
       <c r="F2" s="2">
         <v>76</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>6.2400000000000002E-10</v>
       </c>
     </row>
@@ -3957,7 +3995,7 @@
       <c r="F3" s="2">
         <v>76</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>2.1900000000000001E-8</v>
       </c>
     </row>
@@ -3980,7 +4018,7 @@
       <c r="F4" s="2">
         <v>76</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>8.5599999999999999E-8</v>
       </c>
     </row>
@@ -4003,7 +4041,7 @@
       <c r="F5" s="2">
         <v>76</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>5.1600000000000001E-7</v>
       </c>
     </row>
@@ -4026,7 +4064,7 @@
       <c r="F6" s="2">
         <v>76</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
@@ -4235,7 +4273,7 @@
       <c r="G2" s="2">
         <v>-1.2011057836255601</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>1.54E-11</v>
       </c>
     </row>
@@ -4261,7 +4299,7 @@
       <c r="G3" s="2">
         <v>-0.63306377353495402</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>2.0199999999999999E-8</v>
       </c>
     </row>
@@ -4287,7 +4325,7 @@
       <c r="G4" s="2">
         <v>-0.52203757454775102</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>8.2600000000000001E-7</v>
       </c>
     </row>
@@ -4313,7 +4351,7 @@
       <c r="G5" s="2">
         <v>-0.52391909650755797</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>2.17E-6</v>
       </c>
     </row>
@@ -4339,7 +4377,7 @@
       <c r="G6" s="2">
         <v>-0.360841367332152</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>3.54E-5</v>
       </c>
     </row>
@@ -4365,7 +4403,7 @@
       <c r="G7" s="2">
         <v>-0.35151696906635899</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>9.87E-5</v>
       </c>
     </row>
@@ -4391,7 +4429,7 @@
       <c r="G8" s="2">
         <v>-0.238591627640655</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>2.23E-4</v>
       </c>
     </row>
@@ -4417,7 +4455,7 @@
       <c r="G9" s="2">
         <v>-0.37538738013459499</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
@@ -4443,7 +4481,7 @@
       <c r="G10" s="2">
         <v>1.2891365106499799</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>2.64E-3</v>
       </c>
     </row>
@@ -4469,7 +4507,7 @@
       <c r="G11" s="2">
         <v>1.2666747585428599</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>0.04</v>
       </c>
     </row>
@@ -4495,7 +4533,7 @@
       <c r="G12" s="2">
         <v>-1.7346000171776701E-2</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
@@ -4521,7 +4559,7 @@
       <c r="G13" s="2">
         <v>1.55981448144787</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
@@ -5020,28 +5058,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="2">
         <v>7.2327714302538898E-2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="2">
         <v>-0.51050523973860995</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="2">
         <v>0.65516066834368702</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="2">
         <v>0.95199999999999996</v>
       </c>
     </row>

--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="719" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A82052E-A9C3-43AB-A051-FCA0BB950751}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782B03C9-1841-4687-A5DA-3FA10F644117}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
@@ -19,9 +19,10 @@
     <sheet name="Table S3" sheetId="6" r:id="rId4"/>
     <sheet name="Table S4" sheetId="5" r:id="rId5"/>
     <sheet name="Table S5" sheetId="4" r:id="rId6"/>
+    <sheet name="Table S6" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$N$12</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
   <si>
     <t>Lake</t>
   </si>
@@ -919,7 +920,125 @@
     <t>WRT (yr)</t>
   </si>
   <si>
-    <t>Lake surface area (Area), mean depth (Zmean), max depth (Zmax), and water retention time (WRT)</t>
+    <r>
+      <t>Lake surface area (Area), mean depth (Z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), max depth (Z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), and water retention time (WRT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lnRR N ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DOC)</t>
+    </r>
+  </si>
+  <si>
+    <t>lnRR N ~ 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lnRR P ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DOC)</t>
+    </r>
+  </si>
+  <si>
+    <t>lnRR P ~ 1</t>
+  </si>
+  <si>
+    <t>lnRR N</t>
+  </si>
+  <si>
+    <t>lnRR P</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DOC)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -930,7 +1049,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1110,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1041,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1072,12 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1139,10 +1260,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2954,7 +3080,7 @@
       <c r="E4" s="3">
         <v>13.42</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>3.4620000000000002</v>
       </c>
       <c r="G4" s="5">
@@ -2999,7 +3125,7 @@
       <c r="E5" s="3">
         <v>6.65</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>7.1559999999999997</v>
       </c>
       <c r="G5" s="5">
@@ -3044,7 +3170,7 @@
       <c r="E6" s="3">
         <v>16.03</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>3.9550000000000001</v>
       </c>
       <c r="G6" s="5">
@@ -3089,7 +3215,7 @@
       <c r="E7" s="3">
         <v>5.13</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>5.6909999999999998</v>
       </c>
       <c r="G7" s="5">
@@ -3134,7 +3260,7 @@
       <c r="E8" s="3">
         <v>0.43</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>5.26</v>
       </c>
       <c r="G8" s="5">
@@ -3179,7 +3305,7 @@
       <c r="E9" s="3">
         <v>6.22</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>7.2439999999999998</v>
       </c>
       <c r="G9" s="5">
@@ -3224,7 +3350,7 @@
       <c r="E10" s="3">
         <v>3.51</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>6.8129999999999997</v>
       </c>
       <c r="G10" s="5">
@@ -3270,7 +3396,7 @@
       <c r="E11" s="3">
         <v>0.1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>10.91</v>
       </c>
       <c r="G11" s="6">
@@ -3314,7 +3440,7 @@
       <c r="E12" s="8">
         <v>2.09</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>5.0579999999999998</v>
       </c>
       <c r="G12" s="9">
@@ -3343,8 +3469,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="25" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3369,7 +3495,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3389,163 +3515,163 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>353</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>4.2620392137853598</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="30">
         <v>352.56527253677598</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="31">
         <v>0.59551488293251775</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>353</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>1.8475515119346599</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="30">
         <v>277.889460280744</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="31">
         <v>0.89028944637014551</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>353</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>0.18802276820660199</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>133.637304682814</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="31">
         <v>1.2454107763584301</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>77</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>0</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="30">
         <v>32.569603752361502</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="31">
         <v>4.517437545870262</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>77</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>0.71689651161644896</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="31">
         <v>6.2271751379969018</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>77</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>1.1515346814690299</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>2.50109746018421</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>353</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>0.17249999999999999</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <v>104</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <v>2.0824385081391821</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3556,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0540222E-1C41-4607-9C02-82045FD0625E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="A14" sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3582,7 +3708,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2">
@@ -3597,7 +3723,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
@@ -3612,7 +3738,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3627,7 +3753,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="2">
@@ -3642,7 +3768,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="2">
@@ -3657,7 +3783,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="2">
@@ -3672,7 +3798,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="2">
@@ -3687,7 +3813,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="2">
@@ -3702,18 +3828,78 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <v>401</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <f t="shared" si="2"/>
         <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11-MIN($C$11:$C$12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C12-MIN($C$11:$C$12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5">
+        <f>C13-MIN($C$13:$C$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9">
+        <f>C14-MIN($C$13:$C$14)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3725,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E923F64B-CDC3-48DA-AA7A-E7DEEA8E7B85}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3735,7 +3921,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="39" t="s">
@@ -3745,113 +3931,113 @@
       <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>3.5840000000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="18">
         <v>2.9260000000000002</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>2.7589999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>3.8780000000000001</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>3.1829999999999998</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>3.0179999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="38">
         <v>0.02</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="38">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>3.6480000000000001</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>2.23</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>2.6739999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>3.964</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>2.5720000000000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>2.9620000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="38">
         <v>0.03</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="38" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3859,13 +4045,13 @@
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>4.4960000000000004</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>3.59</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>0.77200000000000002</v>
       </c>
     </row>
@@ -3873,37 +4059,37 @@
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>0.24</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>0.03</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>7.49</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>13.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3972,7 +4158,7 @@
       <c r="F2" s="2">
         <v>76</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>6.2400000000000002E-10</v>
       </c>
     </row>
@@ -3995,7 +4181,7 @@
       <c r="F3" s="2">
         <v>76</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>2.1900000000000001E-8</v>
       </c>
     </row>
@@ -4018,7 +4204,7 @@
       <c r="F4" s="2">
         <v>76</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>8.5599999999999999E-8</v>
       </c>
     </row>
@@ -4041,7 +4227,7 @@
       <c r="F5" s="2">
         <v>76</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>5.1600000000000001E-7</v>
       </c>
     </row>
@@ -4064,7 +4250,7 @@
       <c r="F6" s="2">
         <v>76</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
@@ -4273,7 +4459,7 @@
       <c r="G2" s="2">
         <v>-1.2011057836255601</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>1.54E-11</v>
       </c>
     </row>
@@ -4299,7 +4485,7 @@
       <c r="G3" s="2">
         <v>-0.63306377353495402</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>2.0199999999999999E-8</v>
       </c>
     </row>
@@ -4325,7 +4511,7 @@
       <c r="G4" s="2">
         <v>-0.52203757454775102</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>8.2600000000000001E-7</v>
       </c>
     </row>
@@ -4351,7 +4537,7 @@
       <c r="G5" s="2">
         <v>-0.52391909650755797</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>2.17E-6</v>
       </c>
     </row>
@@ -4377,7 +4563,7 @@
       <c r="G6" s="2">
         <v>-0.360841367332152</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>3.54E-5</v>
       </c>
     </row>
@@ -4403,7 +4589,7 @@
       <c r="G7" s="2">
         <v>-0.35151696906635899</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>9.87E-5</v>
       </c>
     </row>
@@ -4429,7 +4615,7 @@
       <c r="G8" s="2">
         <v>-0.238591627640655</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>2.23E-4</v>
       </c>
     </row>
@@ -4455,7 +4641,7 @@
       <c r="G9" s="2">
         <v>-0.37538738013459499</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
@@ -4481,7 +4667,7 @@
       <c r="G10" s="2">
         <v>1.2891365106499799</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>2.64E-3</v>
       </c>
     </row>
@@ -4507,7 +4693,7 @@
       <c r="G11" s="2">
         <v>1.2666747585428599</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>0.04</v>
       </c>
     </row>
@@ -4533,7 +4719,7 @@
       <c r="G12" s="2">
         <v>-1.7346000171776701E-2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
@@ -4559,7 +4745,7 @@
       <c r="G13" s="2">
         <v>1.55981448144787</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
@@ -5112,4 +5298,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0408A5-29FF-44CD-B26B-942799845A00}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="19">
+        <v>88</v>
+      </c>
+      <c r="C9" s="19">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="781" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782B03C9-1841-4687-A5DA-3FA10F644117}"/>
+  <xr:revisionPtr revIDLastSave="787" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69D5941-AFCA-45F5-9525-CA7E2D4C7074}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
   <si>
     <t>Lake</t>
   </si>
@@ -162,7 +162,26 @@
   </si>
   <si>
     <r>
-      <t>DOC (mg L</t>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
     </r>
     <r>
       <rPr>
@@ -186,26 +205,7 @@
   </si>
   <si>
     <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (m</t>
+      <t>Conductivity (µS cm</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +229,7 @@
   </si>
   <si>
     <r>
-      <t>Conductivity (µS cm</t>
+      <t>TDP (µg P L</t>
     </r>
     <r>
       <rPr>
@@ -253,55 +253,7 @@
   </si>
   <si>
     <r>
-      <t>TDP (µg P L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>TDN (µg N L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Epilimnetic chl-a (µg L</t>
     </r>
     <r>
       <rPr>
@@ -921,18 +873,34 @@
   </si>
   <si>
     <r>
-      <t>Lake surface area (Area), mean depth (Z</t>
+      <t xml:space="preserve">lnRR N ~ </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mean</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DOC)</t>
+    </r>
+  </si>
+  <si>
+    <t>lnRR N ~ 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lnRR P ~ </t>
     </r>
     <r>
       <rPr>
@@ -942,42 +910,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>), max depth (Z</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>), and water retention time (WRT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lnRR N ~ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>f</t>
     </r>
     <r>
@@ -991,20 +923,16 @@
     </r>
   </si>
   <si>
-    <t>lnRR N ~ 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lnRR P ~ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+    <t>lnRR P ~ 1</t>
+  </si>
+  <si>
+    <t>lnRR N</t>
+  </si>
+  <si>
+    <t>lnRR P</t>
+  </si>
+  <si>
+    <r>
       <t>f</t>
     </r>
     <r>
@@ -1018,26 +946,51 @@
     </r>
   </si>
   <si>
-    <t>lnRR P ~ 1</t>
-  </si>
-  <si>
-    <t>lnRR N</t>
-  </si>
-  <si>
-    <t>lnRR P</t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(DOC)</t>
+    <r>
+      <t>Chl-a (µg L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DOC (mg C L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -1049,7 +1002,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,14 +1062,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2613,10 +2558,14 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2654,7 +2603,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2760,7 +2709,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2902,7 +2851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2913,7 +2862,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N13"/>
+      <selection activeCell="M7" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2921,12 +2870,12 @@
     <col min="2" max="2" width="7.81640625" customWidth="1"/>
     <col min="3" max="3" width="7.453125" customWidth="1"/>
     <col min="4" max="5" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
     <col min="13" max="13" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2944,31 +2893,31 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -2990,33 +2939,33 @@
       <c r="E2" s="3">
         <v>1.24</v>
       </c>
-      <c r="F2" s="4">
-        <v>6.335</v>
+      <c r="F2" s="5">
+        <v>0.80700000000000005</v>
       </c>
       <c r="G2" s="5">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="H2" s="5">
         <v>3.38</v>
       </c>
-      <c r="I2" s="3">
+      <c r="H2" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$16:$D$31)</f>
         <v>11.084375</v>
       </c>
-      <c r="J2" s="3">
+      <c r="I2" s="3">
         <v>6.08</v>
       </c>
+      <c r="J2" s="4">
+        <v>6.335</v>
+      </c>
       <c r="K2" s="5">
+        <v>283</v>
+      </c>
+      <c r="L2" s="5">
         <v>2.7</v>
-      </c>
-      <c r="L2" s="5">
-        <v>283</v>
       </c>
       <c r="M2" s="5">
         <v>3.79</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3037,31 +2986,31 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="F3" s="5">
+        <v>1.296</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>21.88</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="J3" s="5">
         <v>10.039999999999999</v>
       </c>
-      <c r="G3" s="5">
-        <v>1.296</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="I3" s="3">
-        <v>21.88</v>
-      </c>
-      <c r="J3" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="5">
+        <v>349</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" s="5">
-        <v>349</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3080,33 +3029,33 @@
       <c r="E4" s="3">
         <v>13.42</v>
       </c>
-      <c r="F4" s="3">
-        <v>3.4620000000000002</v>
+      <c r="F4" s="5">
+        <v>0.433</v>
       </c>
       <c r="G4" s="5">
-        <v>0.433</v>
-      </c>
-      <c r="H4" s="5">
         <v>4.38</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$195:$D$233)</f>
         <v>12.023589743589747</v>
       </c>
+      <c r="I4" s="3">
+        <v>5.85</v>
+      </c>
       <c r="J4" s="3">
-        <v>5.85</v>
+        <v>3.4620000000000002</v>
       </c>
       <c r="K4" s="5">
+        <v>184</v>
+      </c>
+      <c r="L4" s="5">
         <v>1.4</v>
-      </c>
-      <c r="L4" s="5">
-        <v>184</v>
       </c>
       <c r="M4" s="5">
         <v>1.17</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3125,33 +3074,33 @@
       <c r="E5" s="3">
         <v>6.65</v>
       </c>
-      <c r="F5" s="3">
-        <v>7.1559999999999997</v>
+      <c r="F5" s="5">
+        <v>0.82599999999999996</v>
       </c>
       <c r="G5" s="5">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="H5" s="5">
         <v>4.38</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$603:$D$644)</f>
         <v>17.215476190476188</v>
       </c>
+      <c r="I5" s="3">
+        <v>6.61</v>
+      </c>
       <c r="J5" s="3">
-        <v>6.61</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="K5" s="5">
+        <v>290</v>
+      </c>
+      <c r="L5" s="5">
         <v>5.4</v>
-      </c>
-      <c r="L5" s="5">
-        <v>290</v>
       </c>
       <c r="M5" s="5">
         <v>2.96</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3170,33 +3119,33 @@
       <c r="E6" s="3">
         <v>16.03</v>
       </c>
-      <c r="F6" s="3">
-        <v>3.9550000000000001</v>
+      <c r="F6" s="5">
+        <v>0.45300000000000001</v>
       </c>
       <c r="G6" s="5">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="H6" s="5">
         <v>3.63</v>
       </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$1116:$D$1145)</f>
         <v>18.313333333333333</v>
       </c>
+      <c r="I6" s="3">
+        <v>6.05</v>
+      </c>
       <c r="J6" s="3">
-        <v>6.05</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="K6" s="5">
+        <v>217</v>
+      </c>
+      <c r="L6" s="5">
         <v>1.8</v>
-      </c>
-      <c r="L6" s="5">
-        <v>217</v>
       </c>
       <c r="M6" s="5">
         <v>1.1499999999999999</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3215,33 +3164,33 @@
       <c r="E7" s="3">
         <v>5.13</v>
       </c>
-      <c r="F7" s="3">
-        <v>5.6909999999999998</v>
+      <c r="F7" s="5">
+        <v>0.52900000000000003</v>
       </c>
       <c r="G7" s="5">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="H7" s="5">
         <v>3.63</v>
       </c>
-      <c r="I7" s="3">
+      <c r="H7" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$1475:$D$1514)</f>
         <v>30.526000000000003</v>
       </c>
+      <c r="I7" s="3">
+        <v>6.07</v>
+      </c>
       <c r="J7" s="3">
-        <v>6.07</v>
+        <v>5.6909999999999998</v>
       </c>
       <c r="K7" s="5">
+        <v>205</v>
+      </c>
+      <c r="L7" s="5">
         <v>4.5</v>
-      </c>
-      <c r="L7" s="5">
-        <v>205</v>
       </c>
       <c r="M7" s="5">
         <v>0.87</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3260,33 +3209,33 @@
       <c r="E8" s="3">
         <v>0.43</v>
       </c>
-      <c r="F8" s="3">
-        <v>5.26</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="5">
         <v>0.55500000000000005</v>
       </c>
-      <c r="H8" s="3">
+      <c r="G8" s="3">
         <f>AVERAGE(6.38, 5.63)</f>
         <v>6.0049999999999999</v>
       </c>
+      <c r="H8" s="3">
+        <v>17.57</v>
+      </c>
       <c r="I8" s="3">
-        <v>17.57</v>
+        <v>6.49</v>
       </c>
       <c r="J8" s="3">
-        <v>6.49</v>
+        <v>5.26</v>
       </c>
       <c r="K8" s="5">
+        <v>234</v>
+      </c>
+      <c r="L8" s="5">
         <v>3.5</v>
-      </c>
-      <c r="L8" s="5">
-        <v>234</v>
       </c>
       <c r="M8" s="5">
         <v>1.3</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3305,33 +3254,33 @@
       <c r="E9" s="3">
         <v>6.22</v>
       </c>
-      <c r="F9" s="3">
-        <v>7.2439999999999998</v>
+      <c r="F9" s="5">
+        <v>0.65500000000000003</v>
       </c>
       <c r="G9" s="5">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="H9" s="5">
         <v>3.38</v>
       </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$1753:$D$1784)</f>
         <v>14.975000000000001</v>
       </c>
+      <c r="I9" s="3">
+        <v>5.91</v>
+      </c>
       <c r="J9" s="3">
-        <v>5.91</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="K9" s="5">
+        <v>256</v>
+      </c>
+      <c r="L9" s="5">
         <v>3.8</v>
-      </c>
-      <c r="L9" s="5">
-        <v>256</v>
       </c>
       <c r="M9" s="5">
         <v>2.0099999999999998</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3350,33 +3299,33 @@
       <c r="E10" s="3">
         <v>3.51</v>
       </c>
-      <c r="F10" s="3">
-        <v>6.8129999999999997</v>
+      <c r="F10" s="5">
+        <v>0.64300000000000002</v>
       </c>
       <c r="G10" s="5">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="H10" s="5">
         <v>2.88</v>
       </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$2042:$D$2070)</f>
         <v>15.971379310344831</v>
       </c>
+      <c r="I10" s="3">
+        <v>6.49</v>
+      </c>
       <c r="J10" s="3">
-        <v>6.49</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="K10" s="5">
+        <v>258</v>
+      </c>
+      <c r="L10" s="5">
         <v>0.7</v>
-      </c>
-      <c r="L10" s="5">
-        <v>258</v>
       </c>
       <c r="M10" s="5">
         <v>1.45</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3396,32 +3345,32 @@
       <c r="E11" s="3">
         <v>0.1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7.21</v>
+      </c>
+      <c r="J11" s="3">
         <v>10.91</v>
       </c>
-      <c r="G11" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="J11" s="3">
-        <v>7.21</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5">
         <v>5.6</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -3440,39 +3389,37 @@
       <c r="E12" s="8">
         <v>2.09</v>
       </c>
-      <c r="F12" s="8">
-        <v>5.0579999999999998</v>
+      <c r="F12" s="9">
+        <v>0.503</v>
       </c>
       <c r="G12" s="9">
-        <v>0.503</v>
-      </c>
-      <c r="H12" s="9">
         <v>3.13</v>
       </c>
-      <c r="I12" s="8">
+      <c r="H12" s="8">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$2331:$D$2364)</f>
         <v>14.551764705882354</v>
       </c>
+      <c r="I12" s="8">
+        <v>6.51</v>
+      </c>
       <c r="J12" s="8">
-        <v>6.51</v>
+        <v>5.0579999999999998</v>
       </c>
       <c r="K12" s="9">
+        <v>296</v>
+      </c>
+      <c r="L12" s="9">
         <v>4.7</v>
-      </c>
-      <c r="L12" s="9">
-        <v>296</v>
       </c>
       <c r="M12" s="9">
         <v>1.37</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
-        <v>110</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3496,33 +3443,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="18">
         <v>353</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="30">
         <v>4.2620392137853598</v>
@@ -3539,13 +3486,13 @@
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="18">
         <v>353</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="30">
         <v>1.8475515119346599</v>
@@ -3562,13 +3509,13 @@
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="18">
         <v>353</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="30">
         <v>0.18802276820660199</v>
@@ -3584,13 +3531,13 @@
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="18">
         <v>77</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="32">
         <v>0</v>
@@ -3606,13 +3553,13 @@
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="18">
         <v>77</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="32">
         <v>0</v>
@@ -3627,13 +3574,13 @@
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="18">
         <v>77</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="32">
         <v>0</v>
@@ -3649,13 +3596,13 @@
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="19">
         <v>353</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="34">
         <v>0.17249999999999999</v>
@@ -3672,7 +3619,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3695,21 +3642,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2">
         <v>12</v>
@@ -3724,7 +3671,7 @@
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -3739,7 +3686,7 @@
     </row>
     <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -3754,7 +3701,7 @@
     </row>
     <row r="5" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>9</v>
@@ -3769,7 +3716,7 @@
     </row>
     <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>14</v>
@@ -3784,7 +3731,7 @@
     </row>
     <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -3799,7 +3746,7 @@
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
@@ -3814,7 +3761,7 @@
     </row>
     <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -3829,7 +3776,7 @@
     </row>
     <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -3844,7 +3791,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2">
         <v>7</v>
@@ -3859,7 +3806,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -3874,7 +3821,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -3889,7 +3836,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
@@ -3922,10 +3869,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -3933,18 +3880,18 @@
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -3952,7 +3899,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="18">
         <v>3.5840000000000001</v>
@@ -3966,7 +3913,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="18">
         <v>3.8780000000000001</v>
@@ -3980,13 +3927,13 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="38">
         <v>0.02</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="38">
         <v>0.01</v>
@@ -3994,14 +3941,14 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="18">
         <v>3.6480000000000001</v>
@@ -4015,7 +3962,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="18">
         <v>3.964</v>
@@ -4029,21 +3976,21 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="38">
         <v>0.03</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="18">
         <v>4.4960000000000004</v>
@@ -4057,7 +4004,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="18">
         <v>0.24</v>
@@ -4071,7 +4018,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="19">
         <v>28</v>
@@ -4085,7 +4032,7 @@
     </row>
     <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4118,36 +4065,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2">
         <v>77</v>
@@ -4164,13 +4111,13 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>77</v>
@@ -4187,13 +4134,13 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
         <v>77</v>
@@ -4210,13 +4157,13 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>77</v>
@@ -4233,13 +4180,13 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>77</v>
@@ -4256,13 +4203,13 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>77</v>
@@ -4279,13 +4226,13 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2">
         <v>77</v>
@@ -4302,13 +4249,13 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>77</v>
@@ -4325,13 +4272,13 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2">
         <v>77</v>
@@ -4348,13 +4295,13 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2">
         <v>77</v>
@@ -4371,13 +4318,13 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
         <v>77</v>
@@ -4413,39 +4360,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4465,13 +4412,13 @@
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4491,13 +4438,13 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -4517,13 +4464,13 @@
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4543,13 +4490,13 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4569,13 +4516,13 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -4595,13 +4542,13 @@
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -4621,13 +4568,13 @@
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -4647,13 +4594,13 @@
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -4673,13 +4620,13 @@
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -4699,13 +4646,13 @@
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -4725,13 +4672,13 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -4751,13 +4698,13 @@
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -4777,13 +4724,13 @@
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -4803,13 +4750,13 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -4829,13 +4776,13 @@
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -4855,13 +4802,13 @@
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -4881,13 +4828,13 @@
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -4907,13 +4854,13 @@
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -4933,13 +4880,13 @@
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -4959,13 +4906,13 @@
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -4985,13 +4932,13 @@
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -5011,13 +4958,13 @@
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -5037,13 +4984,13 @@
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -5063,13 +5010,13 @@
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -5089,13 +5036,13 @@
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -5115,13 +5062,13 @@
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -5141,13 +5088,13 @@
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -5167,13 +5114,13 @@
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -5193,13 +5140,13 @@
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -5219,13 +5166,13 @@
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -5245,13 +5192,13 @@
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -5271,13 +5218,13 @@
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -5312,32 +5259,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="18">
         <v>4.2619999999999996</v>
@@ -5348,7 +5295,7 @@
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="18">
         <v>4.9859999999999998</v>
@@ -5359,7 +5306,7 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="18">
         <v>0.01</v>
@@ -5370,7 +5317,7 @@
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="18">
         <v>0.06</v>
@@ -5381,7 +5328,7 @@
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="18">
         <v>0.79</v>
@@ -5392,7 +5339,7 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="19">
         <v>88</v>

--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="787" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69D5941-AFCA-45F5-9525-CA7E2D4C7074}"/>
+  <xr:revisionPtr revIDLastSave="903" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF40F436-0959-4B31-986B-43F42E7A141D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
+    <workbookView minimized="1" xWindow="37140" yWindow="1710" windowWidth="14445" windowHeight="7305" activeTab="6" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
   <si>
     <t>Lake</t>
   </si>
@@ -812,9 +812,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;0.01</t>
-  </si>
-  <si>
     <t>Predictor</t>
   </si>
   <si>
@@ -873,80 +870,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">lnRR N ~ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(DOC)</t>
-    </r>
-  </si>
-  <si>
-    <t>lnRR N ~ 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lnRR P ~ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(DOC)</t>
-    </r>
-  </si>
-  <si>
-    <t>lnRR P ~ 1</t>
-  </si>
-  <si>
-    <t>lnRR N</t>
-  </si>
-  <si>
-    <t>lnRR P</t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(DOC)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Chl-a (µg L</t>
     </r>
     <r>
@@ -992,6 +915,39 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>DOC level</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Turnover time (year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1214,6 +1170,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2556,10 +2547,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2861,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1C4D6-4894-4E08-BEFA-8BF0F75F7B5F}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M6:M7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2893,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -2908,7 +2895,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -2917,7 +2904,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -3619,7 +3606,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3619,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:D14"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3662,11 +3649,11 @@
         <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>3673</v>
+        <v>3697</v>
       </c>
       <c r="D2" s="5">
         <f>C2-MIN($C$3:$C$4)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3677,7 +3664,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>3648</v>
+        <v>3661</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D4" si="0">C3-MIN($C$3:$C$4)</f>
@@ -3692,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>3765</v>
+        <v>3778</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
@@ -3707,11 +3694,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>3156</v>
+        <v>3172</v>
       </c>
       <c r="D5" s="5">
         <f>C5-MIN($C$5:$C$7)</f>
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3722,7 +3709,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:D7" si="1">C6-MIN($C$5:$C$7)</f>
@@ -3737,11 +3724,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -3752,11 +3739,11 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D8" s="5">
         <f>C8-MIN($C$8:$C$10)</f>
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3767,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ref="D9:D10" si="2">C9-MIN($C$8:$C$10)</f>
@@ -3775,79 +3762,43 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
-        <v>401</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="7">
+        <v>399</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11-MIN($C$11:$C$12)</f>
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5">
-        <f>C12-MIN($C$11:$C$12)</f>
-        <v>14</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5">
-        <f>C13-MIN($C$13:$C$14)</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>48</v>
-      </c>
-      <c r="D14" s="9">
-        <f>C14-MIN($C$13:$C$14)</f>
-        <v>3</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,7 +3820,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>93</v>
@@ -3891,7 +3842,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -3902,13 +3853,13 @@
         <v>96</v>
       </c>
       <c r="B4" s="18">
-        <v>3.5840000000000001</v>
+        <v>3.823</v>
       </c>
       <c r="C4" s="18">
-        <v>2.9260000000000002</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="D4" s="18">
-        <v>2.7589999999999999</v>
+        <v>3.722</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3916,32 +3867,32 @@
         <v>97</v>
       </c>
       <c r="B5" s="18">
-        <v>3.8780000000000001</v>
+        <v>4.2060000000000004</v>
       </c>
       <c r="C5" s="18">
-        <v>3.1829999999999998</v>
+        <v>3.06</v>
       </c>
       <c r="D5" s="18">
-        <v>3.0179999999999998</v>
+        <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="38">
-        <v>0.02</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="38">
-        <v>0.01</v>
+      <c r="B6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3951,13 +3902,13 @@
         <v>96</v>
       </c>
       <c r="B8" s="18">
-        <v>3.6480000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="C8" s="18">
-        <v>2.23</v>
+        <v>1</v>
       </c>
       <c r="D8" s="18">
-        <v>2.6739999999999999</v>
+        <v>2.528</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3965,13 +3916,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="18">
-        <v>3.964</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18">
-        <v>2.5720000000000001</v>
+        <v>1</v>
       </c>
       <c r="D9" s="18">
-        <v>2.9620000000000002</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3981,8 +3932,8 @@
       <c r="B10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="38">
-        <v>0.03</v>
+      <c r="C10" s="18">
+        <v>0.84</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>64</v>
@@ -3993,13 +3944,13 @@
         <v>98</v>
       </c>
       <c r="B11" s="18">
-        <v>4.4960000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C11" s="18">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="D11" s="18">
-        <v>0.77200000000000002</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4007,13 +3958,13 @@
         <v>99</v>
       </c>
       <c r="B12" s="18">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="C12" s="18">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D12" s="18">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4021,13 +3972,13 @@
         <v>100</v>
       </c>
       <c r="B13" s="19">
-        <v>28</v>
+        <v>22.9</v>
       </c>
       <c r="C13" s="19">
-        <v>7.49</v>
+        <v>2.8</v>
       </c>
       <c r="D13" s="19">
-        <v>13.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
@@ -5249,108 +5200,385 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0408A5-29FF-44CD-B26B-942799845A00}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="44" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="E2" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="18">
-        <v>4.2619999999999996</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="18">
-        <v>4.9859999999999998</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27.330568912155499</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.489440405580716</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5471894725465301</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.2969156999436197E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.8294670290142498</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.84579642656409504</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.14346253967179601</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.16903932858409301</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.12361510540165301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.5031957622780103</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.245653998484374</v>
+      </c>
+      <c r="E5" s="3">
+        <v>23.289326301704602</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.1933861219234201</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0.15003046565873099</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0.199288238405298</v>
+      </c>
+      <c r="I5" s="51">
+        <v>1.0304139215994299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.6799754589995599</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.44995193888153601</v>
+      </c>
+      <c r="E6" s="3">
+        <v>146.13000735232799</v>
+      </c>
+      <c r="F6" s="3">
+        <v>24.604014769609101</v>
+      </c>
+      <c r="G6" s="51">
+        <v>3.8030301536233901</v>
+      </c>
+      <c r="H6" s="51">
+        <v>2.7726652663543998</v>
+      </c>
+      <c r="I6" s="51">
+        <v>4.4211878771971902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="C7" s="18">
-        <v>3.484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12.529017818742799</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.21644905946687801</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0.79</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="19">
-        <v>88</v>
-      </c>
-      <c r="C9" s="19">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20.008337061990201</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.1078012944945601</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.5194832031572298</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.7848198143704699E-2</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.7357985383183401</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.111496865218578</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.9410544110129493</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.2475923989966599E-2</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="52">
+        <v>12.994924080443001</v>
+      </c>
+      <c r="D12" s="52">
+        <v>0.69231273379018798</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.3007447015073699</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.8601768533661302E-2</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="903" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF40F436-0959-4B31-986B-43F42E7A141D}"/>
+  <xr:revisionPtr revIDLastSave="1178" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D66B8AF-64BA-492D-97B9-92CF56C03106}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37140" yWindow="1710" windowWidth="14445" windowHeight="7305" activeTab="6" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
+    <workbookView minimized="1" xWindow="2380" yWindow="1180" windowWidth="14400" windowHeight="7280" activeTab="1" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table S1" sheetId="3" r:id="rId2"/>
-    <sheet name="Table S2" sheetId="2" r:id="rId3"/>
-    <sheet name="Table S3" sheetId="6" r:id="rId4"/>
-    <sheet name="Table S4" sheetId="5" r:id="rId5"/>
-    <sheet name="Table S5" sheetId="4" r:id="rId6"/>
-    <sheet name="Table S6" sheetId="7" r:id="rId7"/>
+    <sheet name="Table 2" sheetId="8" r:id="rId2"/>
+    <sheet name="Table S1" sheetId="3" r:id="rId3"/>
+    <sheet name="Table S2" sheetId="2" r:id="rId4"/>
+    <sheet name="Table S3" sheetId="6" r:id="rId5"/>
+    <sheet name="Table S4" sheetId="5" r:id="rId6"/>
+    <sheet name="Table S5" sheetId="4" r:id="rId7"/>
+    <sheet name="Table S6" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$N$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="134">
   <si>
     <t>Lake</t>
   </si>
@@ -640,30 +641,6 @@
   </si>
   <si>
     <t>null model</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>YP</t>
-  </si>
-  <si>
-    <t>FM, WS, PD</t>
-  </si>
-  <si>
-    <t>WS, PD</t>
-  </si>
-  <si>
-    <t>FM, WS, PD, YP</t>
-  </si>
-  <si>
-    <t>WS, PD, YP</t>
-  </si>
-  <si>
-    <t>PD, YP</t>
-  </si>
-  <si>
-    <t>FM, WS</t>
   </si>
   <si>
     <t>mean (± SD)</t>
@@ -948,17 +925,594 @@
   </si>
   <si>
     <t>medium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LH, LT, NP, WS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, SS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT, NRD, FD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, SS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT, WS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, SS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, LC, FD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SUVA</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">254 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(L mg-1 C m-1)</t>
+    </r>
+  </si>
+  <si>
+    <t>FI (unitless)</t>
+  </si>
+  <si>
+    <t>C2 (RU)</t>
+  </si>
+  <si>
+    <t>C5 (RU)</t>
+  </si>
+  <si>
+    <t>C7 (RU)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NP, BnS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT, LC, BnS, StS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, B, BS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, SS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT, NRD, BnS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FhM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, BS, SS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NRD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FhM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, NPD, WS, ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NRD, FD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FhM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, PD, BS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT, LC, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FhM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT, NRD, FD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FhM,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, SS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LH, LT, LC, BnS, StS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FhM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, LgD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, B, BS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fish species abbreviations as follows: LT, Lake trout (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Salvelinus namaycush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>); NP, Northern pike (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Esox lucius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B, Burbot (Lota lota); WS, White sucker (Catostomus commersoni); SS, Slimy sculpin (Cottus cognatus); BS, Brook stickleback (Culaea inconstans); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRD, Northern redbelly dace (Chrosomus eos);  FD, Finescale dace (Chrosomus neogaeus); ID, Iowa darter (Etheostoma exile);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPD, Northern pearl dace (Margariscus nachtriebi); BnS, Blacknose shiner (Notripis heterolepis);  StS, Spottail shiner (Notropis hudsonius); </t>
+  </si>
+  <si>
+    <t>YP, Yellow perch (Perca flaescens); FhM, Fathead minnow (Pimephales promelas);  LgD, Longnose dace (Rhinichthys cataractae);</t>
+  </si>
+  <si>
+    <t>LC, Lake chub (Couesius plumbeus); LH, Lake herring (Coregonus artedi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1573,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1069,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1082,9 +1655,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1167,17 +1737,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,17 +1759,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2846,10 +3419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1C4D6-4894-4E08-BEFA-8BF0F75F7B5F}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2861,12 +3434,9 @@
     <col min="7" max="7" width="13.6328125" customWidth="1"/>
     <col min="8" max="8" width="13.90625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="38" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +3450,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -2894,23 +3464,8 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2926,7 +3481,7 @@
       <c r="E2" s="3">
         <v>1.24</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>0.80700000000000005</v>
       </c>
       <c r="G2" s="5">
@@ -2939,23 +3494,8 @@
       <c r="I2" s="3">
         <v>6.08</v>
       </c>
-      <c r="J2" s="4">
-        <v>6.335</v>
-      </c>
-      <c r="K2" s="5">
-        <v>283</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3.79</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2972,7 +3512,7 @@
       <c r="E3" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>1.296</v>
       </c>
       <c r="G3" s="5">
@@ -2984,23 +3524,8 @@
       <c r="I3" s="3">
         <v>6.6</v>
       </c>
-      <c r="J3" s="5">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="K3" s="5">
-        <v>349</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3016,7 +3541,7 @@
       <c r="E4" s="3">
         <v>13.42</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.433</v>
       </c>
       <c r="G4" s="5">
@@ -3029,23 +3554,8 @@
       <c r="I4" s="3">
         <v>5.85</v>
       </c>
-      <c r="J4" s="3">
-        <v>3.4620000000000002</v>
-      </c>
-      <c r="K4" s="5">
-        <v>184</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +3571,7 @@
       <c r="E5" s="3">
         <v>6.65</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.82599999999999996</v>
       </c>
       <c r="G5" s="5">
@@ -3074,23 +3584,8 @@
       <c r="I5" s="3">
         <v>6.61</v>
       </c>
-      <c r="J5" s="3">
-        <v>7.1559999999999997</v>
-      </c>
-      <c r="K5" s="5">
-        <v>290</v>
-      </c>
-      <c r="L5" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3601,7 @@
       <c r="E6" s="3">
         <v>16.03</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.45300000000000001</v>
       </c>
       <c r="G6" s="5">
@@ -3119,23 +3614,8 @@
       <c r="I6" s="3">
         <v>6.05</v>
       </c>
-      <c r="J6" s="3">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="K6" s="5">
-        <v>217</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3151,7 +3631,7 @@
       <c r="E7" s="3">
         <v>5.13</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.52900000000000003</v>
       </c>
       <c r="G7" s="5">
@@ -3164,23 +3644,8 @@
       <c r="I7" s="3">
         <v>6.07</v>
       </c>
-      <c r="J7" s="3">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="K7" s="5">
-        <v>205</v>
-      </c>
-      <c r="L7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3661,7 @@
       <c r="E8" s="3">
         <v>0.43</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.55500000000000005</v>
       </c>
       <c r="G8" s="3">
@@ -3209,23 +3674,8 @@
       <c r="I8" s="3">
         <v>6.49</v>
       </c>
-      <c r="J8" s="3">
-        <v>5.26</v>
-      </c>
-      <c r="K8" s="5">
-        <v>234</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3241,7 +3691,7 @@
       <c r="E9" s="3">
         <v>6.22</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.65500000000000003</v>
       </c>
       <c r="G9" s="5">
@@ -3254,23 +3704,8 @@
       <c r="I9" s="3">
         <v>5.91</v>
       </c>
-      <c r="J9" s="3">
-        <v>7.2439999999999998</v>
-      </c>
-      <c r="K9" s="5">
-        <v>256</v>
-      </c>
-      <c r="L9" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3286,7 +3721,7 @@
       <c r="E10" s="3">
         <v>3.51</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.64300000000000002</v>
       </c>
       <c r="G10" s="5">
@@ -3299,23 +3734,8 @@
       <c r="I10" s="3">
         <v>6.49</v>
       </c>
-      <c r="J10" s="3">
-        <v>6.8129999999999997</v>
-      </c>
-      <c r="K10" s="5">
-        <v>258</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1.45</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3332,7 +3752,7 @@
       <c r="E11" s="3">
         <v>0.1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.84</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3344,69 +3764,39 @@
       <c r="I11" s="3">
         <v>7.21</v>
       </c>
-      <c r="J11" s="3">
-        <v>10.91</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>26.132999999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>7.27</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>13.11</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>2.09</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>0.503</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>3.13</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f>AVERAGE('[1]2022_RBR_Conductivity'!$D$2331:$D$2364)</f>
         <v>14.551764705882354</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>6.51</v>
       </c>
-      <c r="J12" s="8">
-        <v>5.0579999999999998</v>
-      </c>
-      <c r="K12" s="9">
-        <v>296</v>
-      </c>
-      <c r="L12" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1.37</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,6 +3804,476 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C82D021-8F4C-4E71-986C-08A9033EF321}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6.335</v>
+      </c>
+      <c r="C2" s="51">
+        <v>2.5188978660000001</v>
+      </c>
+      <c r="D2" s="51">
+        <v>1.259755832</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0.73122500000000001</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0.14449489400000001</v>
+      </c>
+      <c r="G2" s="51">
+        <v>0.27149173799999998</v>
+      </c>
+      <c r="H2" s="5">
+        <v>283</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C3" s="51">
+        <v>3.8440824120000001</v>
+      </c>
+      <c r="D3" s="51">
+        <v>1.284469147</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1.4567019729999999</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0.29113379499999997</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0.21290036500000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>349</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1.913706441</v>
+      </c>
+      <c r="D4" s="51">
+        <v>1.2597043109999999</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0.17739898100000001</v>
+      </c>
+      <c r="F4" s="51">
+        <v>2.9624553000000001E-2</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0.15317287199999999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>184</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="C5" s="51">
+        <v>3.2496000939999998</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1.2246417000000001</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1.204860883</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0.13577767499999999</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0.21650597999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>290</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="C6" s="51">
+        <v>1.794215745</v>
+      </c>
+      <c r="D6" s="51">
+        <v>1.3143496750000001</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0.19550811500000001</v>
+      </c>
+      <c r="F6" s="51">
+        <v>3.1498613000000002E-2</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0.24493693999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>217</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="C7" s="51">
+        <v>2.8426304889999998</v>
+      </c>
+      <c r="D7" s="51">
+        <v>1.297982357</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0.62823688499999997</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0.111312536</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0.18143414799999999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>205</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="C8" s="51">
+        <v>2.6780350589999999</v>
+      </c>
+      <c r="D8" s="51">
+        <v>1.2056830009999999</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0.52473931600000001</v>
+      </c>
+      <c r="F8" s="51">
+        <v>8.8962947000000001E-2</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0.14514497700000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>234</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="C9" s="51">
+        <v>3.0539264519999998</v>
+      </c>
+      <c r="D9" s="51">
+        <v>1.25686728</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0.80109618100000002</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0.143091253</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.219020838</v>
+      </c>
+      <c r="H9" s="5">
+        <v>256</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="C10" s="51">
+        <v>2.802097689</v>
+      </c>
+      <c r="D10" s="51">
+        <v>1.271869846</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0.71991412600000004</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0.131122293</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0.2181767</v>
+      </c>
+      <c r="H10" s="5">
+        <v>258</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.91</v>
+      </c>
+      <c r="C11" s="51">
+        <v>3.8313944470000001</v>
+      </c>
+      <c r="D11" s="51">
+        <v>1.266508312</v>
+      </c>
+      <c r="E11" s="51">
+        <v>1.542485337</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0.46597889100000001</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0.20833141199999999</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="C12" s="52">
+        <v>2.100406328</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1.1924919970000001</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.36610933299999998</v>
+      </c>
+      <c r="F12" s="52">
+        <v>5.7670434999999999E-2</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0.14365261700000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>296</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A56B11-718E-4AE7-9179-87FD14790215}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -3429,184 +4289,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17">
+        <v>353</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="29">
+        <v>4.2620392137853598</v>
+      </c>
+      <c r="E2" s="29">
+        <v>352.56527253677598</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0.59551488293251775</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="17">
+        <v>353</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1.8475515119346599</v>
+      </c>
+      <c r="E3" s="29">
+        <v>277.889460280744</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.89028944637014551</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="17">
+        <v>353</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.18802276820660199</v>
+      </c>
+      <c r="E4" s="29">
+        <v>133.637304682814</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1.2454107763584301</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="17">
+        <v>77</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>32.569603752361502</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4.517437545870262</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B6" s="17">
+        <v>77</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.71689651161644896</v>
+      </c>
+      <c r="F6" s="30">
+        <v>6.2271751379969018</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="B7" s="17">
         <v>77</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="C7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1.1515346814690299</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2.50109746018421</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="18">
         <v>353</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="30">
-        <v>4.2620392137853598</v>
-      </c>
-      <c r="E2" s="30">
-        <v>352.56527253677598</v>
-      </c>
-      <c r="F2" s="31">
-        <v>0.59551488293251775</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="18">
-        <v>353</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1.8475515119346599</v>
-      </c>
-      <c r="E3" s="30">
-        <v>277.889460280744</v>
-      </c>
-      <c r="F3" s="31">
-        <v>0.89028944637014551</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="18">
-        <v>353</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="30">
-        <v>0.18802276820660199</v>
-      </c>
-      <c r="E4" s="30">
-        <v>133.637304682814</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1.2454107763584301</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="18">
-        <v>77</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>32.569603752361502</v>
-      </c>
-      <c r="F5" s="31">
-        <v>4.517437545870262</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="C8" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="18">
-        <v>77</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0.71689651161644896</v>
-      </c>
-      <c r="F6" s="31">
-        <v>6.2271751379969018</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="18">
-        <v>77</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1.1515346814690299</v>
-      </c>
-      <c r="F7" s="31">
-        <v>2.50109746018421</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="19">
-        <v>353</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>0.17249999999999999</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>104</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>2.0824385081391821</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>105</v>
+      <c r="A9" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +4474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0540222E-1C41-4607-9C02-82045FD0625E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -3628,21 +4488,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2">
@@ -3657,7 +4517,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2">
@@ -3672,7 +4532,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2">
@@ -3687,7 +4547,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="2">
@@ -3702,7 +4562,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="2">
@@ -3717,7 +4577,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2">
@@ -3732,7 +4592,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2">
@@ -3747,7 +4607,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="2">
@@ -3762,16 +4622,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>399</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
@@ -3795,22 +4655,22 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E923F64B-CDC3-48DA-AA7A-E7DEEA8E7B85}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3819,175 +4679,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="A1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3.823</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3.722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4.2060000000000004</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3.06</v>
+      </c>
+      <c r="D5" s="17">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="18">
-        <v>3.823</v>
-      </c>
-      <c r="C4" s="18">
-        <v>2.7989999999999999</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3.722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="18">
-        <v>4.2060000000000004</v>
-      </c>
-      <c r="C5" s="18">
-        <v>3.06</v>
-      </c>
-      <c r="D5" s="18">
-        <v>3.9249999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="17">
+        <v>3.66</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2.528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="38">
-        <v>0.03</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="18">
-        <v>3.66</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2.528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="18">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>0.84</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="18">
+        <v>90</v>
+      </c>
+      <c r="B11" s="17">
         <v>4.4800000000000004</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>3.6</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="18">
+        <v>91</v>
+      </c>
+      <c r="B12" s="17">
         <v>0.21</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>0.01</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="19">
+      <c r="A13" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="18">
         <v>22.9</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>2.8</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>16.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
-        <v>101</v>
+      <c r="A14" s="24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3998,12 +4858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3D7D9E-1D72-47A2-A573-6B5699B9C522}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4015,25 +4875,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4048,16 +4908,16 @@
         <v>66</v>
       </c>
       <c r="D2" s="2">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.9189234649999998</v>
+        <v>57</v>
+      </c>
+      <c r="E2" s="51">
+        <v>8.5750940338108705</v>
       </c>
       <c r="F2" s="2">
-        <v>76</v>
-      </c>
-      <c r="G2" s="14">
-        <v>6.2400000000000002E-10</v>
+        <v>56</v>
+      </c>
+      <c r="G2" s="13">
+        <v>4.4200000000000001E-12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4071,16 +4931,16 @@
         <v>66</v>
       </c>
       <c r="D3" s="2">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6.0854249930000002</v>
+        <v>65</v>
+      </c>
+      <c r="E3" s="51">
+        <v>7.6276750054811302</v>
       </c>
       <c r="F3" s="2">
-        <v>76</v>
-      </c>
-      <c r="G3" s="14">
-        <v>2.1900000000000001E-8</v>
+        <v>64</v>
+      </c>
+      <c r="G3" s="13">
+        <v>7.3099999999999998E-11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4094,16 +4954,16 @@
         <v>66</v>
       </c>
       <c r="D4" s="2">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.7573114350000001</v>
+        <v>58</v>
+      </c>
+      <c r="E4" s="51">
+        <v>7.5317065962948604</v>
       </c>
       <c r="F4" s="2">
-        <v>76</v>
-      </c>
-      <c r="G4" s="14">
-        <v>8.5599999999999999E-8</v>
+        <v>57</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2.0700000000000001E-10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4117,16 +4977,16 @@
         <v>66</v>
       </c>
       <c r="D5" s="2">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.3150029769999998</v>
+        <v>53</v>
+      </c>
+      <c r="E5" s="51">
+        <v>7.5281357802584203</v>
       </c>
       <c r="F5" s="2">
-        <v>76</v>
-      </c>
-      <c r="G5" s="14">
-        <v>5.1600000000000001E-7</v>
+        <v>52</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3.5600000000000001E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4140,16 +5000,16 @@
         <v>66</v>
       </c>
       <c r="D6" s="2">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.880580589</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="51">
+        <v>7.0371757052109398</v>
       </c>
       <c r="F6" s="2">
-        <v>76</v>
-      </c>
-      <c r="G6" s="13">
-        <v>3.1899999999999998E-2</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2.6200000000000001E-9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4163,16 +5023,16 @@
         <v>66</v>
       </c>
       <c r="D7" s="2">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.1857208669999999</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="51">
+        <v>6.6373909974604999</v>
       </c>
       <c r="F7" s="2">
-        <v>76</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.12</v>
+        <v>53</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8.6399999999999999E-9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4186,16 +5046,16 @@
         <v>66</v>
       </c>
       <c r="D8" s="2">
-        <v>77</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.485316162</v>
+        <v>68</v>
+      </c>
+      <c r="E8" s="51">
+        <v>5.5046890701200999</v>
       </c>
       <c r="F8" s="2">
-        <v>76</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.314</v>
+        <v>67</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3.15E-7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4209,16 +5069,16 @@
         <v>66</v>
       </c>
       <c r="D9" s="2">
-        <v>77</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-6.2599383999999994E-2</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="51">
+        <v>6.7666243483050197</v>
       </c>
       <c r="F9" s="2">
-        <v>76</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.52500000000000002</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3.34E-7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4232,16 +5092,16 @@
         <v>66</v>
       </c>
       <c r="D10" s="2">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-3.2760929079999999</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="51">
+        <v>5.7454015295673599</v>
       </c>
       <c r="F10" s="2">
-        <v>76</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.999</v>
+        <v>30</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.42E-6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4255,39 +5115,39 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-4.5582237729999999</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="51">
+        <v>4.3823779823996798</v>
       </c>
       <c r="F11" s="2">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.44E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="7">
-        <v>77</v>
-      </c>
-      <c r="E12" s="7">
-        <v>-6.1089230160000003</v>
-      </c>
-      <c r="F12" s="7">
-        <v>76</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
+      <c r="D12" s="6">
+        <v>35</v>
+      </c>
+      <c r="E12" s="52">
+        <v>2.9622916436154201</v>
+      </c>
+      <c r="F12" s="6">
+        <v>34</v>
+      </c>
+      <c r="G12" s="53">
+        <v>2.7699999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +5155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED17F3-BA40-46B4-BCE1-E4A263638908}">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -4310,28 +5170,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4357,7 +5217,7 @@
       <c r="G2" s="2">
         <v>-1.2011057836255601</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>1.54E-11</v>
       </c>
     </row>
@@ -4383,7 +5243,7 @@
       <c r="G3" s="2">
         <v>-0.63306377353495402</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>2.0199999999999999E-8</v>
       </c>
     </row>
@@ -4409,7 +5269,7 @@
       <c r="G4" s="2">
         <v>-0.52203757454775102</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>8.2600000000000001E-7</v>
       </c>
     </row>
@@ -4435,7 +5295,7 @@
       <c r="G5" s="2">
         <v>-0.52391909650755797</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>2.17E-6</v>
       </c>
     </row>
@@ -4461,7 +5321,7 @@
       <c r="G6" s="2">
         <v>-0.360841367332152</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>3.54E-5</v>
       </c>
     </row>
@@ -4487,7 +5347,7 @@
       <c r="G7" s="2">
         <v>-0.35151696906635899</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>9.87E-5</v>
       </c>
     </row>
@@ -4513,7 +5373,7 @@
       <c r="G8" s="2">
         <v>-0.238591627640655</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2.23E-4</v>
       </c>
     </row>
@@ -4539,7 +5399,7 @@
       <c r="G9" s="2">
         <v>-0.37538738013459499</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
@@ -4565,7 +5425,7 @@
       <c r="G10" s="2">
         <v>1.2891365106499799</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>2.64E-3</v>
       </c>
     </row>
@@ -4591,7 +5451,7 @@
       <c r="G11" s="2">
         <v>1.2666747585428599</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0.04</v>
       </c>
     </row>
@@ -4617,7 +5477,7 @@
       <c r="G12" s="2">
         <v>-1.7346000171776701E-2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
@@ -4643,7 +5503,7 @@
       <c r="G13" s="2">
         <v>1.55981448144787</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
@@ -5168,28 +6028,28 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>1.2483551870117401E-2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>-0.42214093021975402</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>0.44710803395998899</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>0.997</v>
       </c>
     </row>
@@ -5198,11 +6058,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0408A5-29FF-44CD-B26B-942799845A00}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
@@ -5216,10 +6076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="49" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -5229,40 +6089,40 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>110</v>
+      <c r="B3" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C3" s="3">
         <v>27.330568912155499</v>
@@ -5270,27 +6130,27 @@
       <c r="D3" s="3">
         <v>0.489440405580716</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>110</v>
+      <c r="E3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3">
@@ -5319,7 +6179,7 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="3">
@@ -5334,13 +6194,13 @@
       <c r="F5" s="3">
         <v>1.1933861219234201</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="47">
         <v>0.15003046565873099</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="47">
         <v>0.199288238405298</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="47">
         <v>1.0304139215994299</v>
       </c>
     </row>
@@ -5348,8 +6208,8 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>119</v>
+      <c r="B6" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="C6" s="3">
         <v>2.6799754589995599</v>
@@ -5363,13 +6223,13 @@
       <c r="F6" s="3">
         <v>24.604014769609101</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="47">
         <v>3.8030301536233901</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="47">
         <v>2.7726652663543998</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="47">
         <v>4.4211878771971902</v>
       </c>
     </row>
@@ -5377,8 +6237,8 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>110</v>
+      <c r="B7" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3">
         <v>12.529017818742799</v>
@@ -5386,28 +6246,28 @@
       <c r="D7" s="3">
         <v>0.21644905946687801</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>110</v>
+      <c r="E7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>110</v>
+      <c r="B8" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="3">
         <v>20.008337061990201</v>
@@ -5415,28 +6275,28 @@
       <c r="D8" s="3">
         <v>1.1078012944945601</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>110</v>
+      <c r="E8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>110</v>
+      <c r="B9" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="3">
         <v>2.5194832031572298</v>
@@ -5444,28 +6304,28 @@
       <c r="D9" s="3">
         <v>6.7848198143704699E-2</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>110</v>
+      <c r="E9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>110</v>
+      <c r="B10" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="3">
         <v>1.7357985383183401</v>
@@ -5473,28 +6333,28 @@
       <c r="D10" s="3">
         <v>0.111496865218578</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>110</v>
+      <c r="E10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>110</v>
+      <c r="B11" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="3">
         <v>8.9410544110129493</v>
@@ -5502,78 +6362,78 @@
       <c r="D11" s="3">
         <v>3.2475923989966599E-2</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>110</v>
+      <c r="E11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="52">
+      <c r="B12" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3">
         <v>12.994924080443001</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="3">
         <v>0.69231273379018798</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>110</v>
+      <c r="E12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7">
         <v>2.3007447015073699</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>9.8601768533661302E-2</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>110</v>
+      <c r="E13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1178" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D66B8AF-64BA-492D-97B9-92CF56C03106}"/>
+  <xr:revisionPtr revIDLastSave="1194" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD3488F-FF21-4820-932E-73BB41FF6CA9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2380" yWindow="1180" windowWidth="14400" windowHeight="7280" activeTab="1" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" activeTab="1" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -1510,7 +1510,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1713,7 +1713,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1725,7 +1725,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,18 +1765,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1793,6 +1793,992 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4952537182852144E-2"/>
+                  <c:y val="8.2421988918051914E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table 2'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>6.335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>7.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5.6909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>7.2439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.8129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>5.0579999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table 2'!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-350C-4E1E-B8E7-EDD94E3A5403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="851064400"/>
+        <c:axId val="851066800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="851064400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851066800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="851066800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851064400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBF9024-C5BF-91F9-01AB-718E390BFD52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3805,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C82D021-8F4C-4E71-986C-08A9033EF321}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:K18"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3818,7 +4804,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3853,26 +4839,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>6.335</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="49">
         <v>2.5188978660000001</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="49">
         <v>1.259755832</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="49">
         <v>0.73122500000000001</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="49">
         <v>0.14449489400000001</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="49">
         <v>0.27149173799999998</v>
       </c>
       <c r="H2" s="5">
@@ -3887,27 +4873,30 @@
       <c r="K2" s="36" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>10.039999999999999</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="49">
         <v>3.8440824120000001</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <v>1.284469147</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <v>1.4567019729999999</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="49">
         <v>0.29113379499999997</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="49">
         <v>0.21290036500000001</v>
       </c>
       <c r="H3" s="5">
@@ -3922,27 +4911,30 @@
       <c r="K3" s="36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>3.4620000000000002</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>1.913706441</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>1.2597043109999999</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <v>0.17739898100000001</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="49">
         <v>2.9624553000000001E-2</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <v>0.15317287199999999</v>
       </c>
       <c r="H4" s="5">
@@ -3957,27 +4949,30 @@
       <c r="K4" s="36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="M4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>7.1559999999999997</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>3.2496000939999998</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>1.2246417000000001</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>1.204860883</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="49">
         <v>0.13577767499999999</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <v>0.21650597999999999</v>
       </c>
       <c r="H5" s="5">
@@ -3992,27 +4987,30 @@
       <c r="K5" s="36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="M5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>3.9550000000000001</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>1.794215745</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>1.3143496750000001</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>0.19550811500000001</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="49">
         <v>3.1498613000000002E-2</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="49">
         <v>0.24493693999999999</v>
       </c>
       <c r="H6" s="5">
@@ -4027,27 +5025,30 @@
       <c r="K6" s="36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="M6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>5.6909999999999998</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>2.8426304889999998</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>1.297982357</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>0.62823688499999997</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="49">
         <v>0.111312536</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="49">
         <v>0.18143414799999999</v>
       </c>
       <c r="H7" s="5">
@@ -4062,27 +5063,30 @@
       <c r="K7" s="36" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="M7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>5.26</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>2.6780350589999999</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>1.2056830009999999</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <v>0.52473931600000001</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="49">
         <v>8.8962947000000001E-2</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="49">
         <v>0.14514497700000001</v>
       </c>
       <c r="H8" s="5">
@@ -4097,27 +5101,30 @@
       <c r="K8" s="36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="M8" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>7.2439999999999998</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>3.0539264519999998</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>1.25686728</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>0.80109618100000002</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <v>0.143091253</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="49">
         <v>0.219020838</v>
       </c>
       <c r="H9" s="5">
@@ -4132,27 +5139,30 @@
       <c r="K9" s="36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="M9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>6.8129999999999997</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>2.802097689</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>1.271869846</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <v>0.71991412600000004</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="49">
         <v>0.131122293</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="49">
         <v>0.2181767</v>
       </c>
       <c r="H10" s="5">
@@ -4167,27 +5177,30 @@
       <c r="K10" s="36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="M10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>10.91</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="49">
         <v>3.8313944470000001</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>1.266508312</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <v>1.542485337</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="49">
         <v>0.46597889100000001</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="49">
         <v>0.20833141199999999</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -4202,27 +5215,30 @@
       <c r="K11" s="36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>5.0579999999999998</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <v>2.100406328</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="50">
         <v>1.1924919970000001</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>0.36610933299999998</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <v>5.7670434999999999E-2</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="50">
         <v>0.14365261700000001</v>
       </c>
       <c r="H12" s="8">
@@ -4237,39 +5253,43 @@
       <c r="K12" s="38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="54" t="s">
+      <c r="M12" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="48" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4682,11 +5702,11 @@
       <c r="A1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
@@ -4910,7 +5930,7 @@
       <c r="D2" s="2">
         <v>57</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="49">
         <v>8.5750940338108705</v>
       </c>
       <c r="F2" s="2">
@@ -4933,7 +5953,7 @@
       <c r="D3" s="2">
         <v>65</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <v>7.6276750054811302</v>
       </c>
       <c r="F3" s="2">
@@ -4956,7 +5976,7 @@
       <c r="D4" s="2">
         <v>58</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <v>7.5317065962948604</v>
       </c>
       <c r="F4" s="2">
@@ -4979,7 +5999,7 @@
       <c r="D5" s="2">
         <v>53</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>7.5281357802584203</v>
       </c>
       <c r="F5" s="2">
@@ -5002,7 +6022,7 @@
       <c r="D6" s="2">
         <v>51</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>7.0371757052109398</v>
       </c>
       <c r="F6" s="2">
@@ -5025,7 +6045,7 @@
       <c r="D7" s="2">
         <v>54</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>6.6373909974604999</v>
       </c>
       <c r="F7" s="2">
@@ -5048,7 +6068,7 @@
       <c r="D8" s="2">
         <v>68</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <v>5.5046890701200999</v>
       </c>
       <c r="F8" s="2">
@@ -5071,7 +6091,7 @@
       <c r="D9" s="2">
         <v>24</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>6.7666243483050197</v>
       </c>
       <c r="F9" s="2">
@@ -5094,7 +6114,7 @@
       <c r="D10" s="2">
         <v>31</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <v>5.7454015295673599</v>
       </c>
       <c r="F10" s="2">
@@ -5117,7 +6137,7 @@
       <c r="D11" s="2">
         <v>21</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <v>4.3823779823996798</v>
       </c>
       <c r="F11" s="2">
@@ -5140,13 +6160,13 @@
       <c r="D12" s="6">
         <v>35</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>2.9622916436154201</v>
       </c>
       <c r="F12" s="6">
         <v>34</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="51">
         <v>2.7699999999999999E-3</v>
       </c>
     </row>
@@ -6078,15 +7098,15 @@
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="42"/>
       <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">

--- a/tables_figures/final_tables_figures/Tables.xlsx
+++ b/tables_figures/final_tables_figures/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/tables_figures/final_tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1194" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD3488F-FF21-4820-932E-73BB41FF6CA9}"/>
+  <xr:revisionPtr revIDLastSave="1213" documentId="8_{F2CF8D58-C965-49FA-B673-1C494D076C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4576C2-1E2A-4DFA-ACD2-E7E10F702DE4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" activeTab="1" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0BA4557E-E60D-4DC8-8833-FFFA2208CF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -1642,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1778,6 +1778,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,992 +1804,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.4952537182852144E-2"/>
-                  <c:y val="8.2421988918051914E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table 2'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>6.335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>3.4620000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>7.1559999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>3.9550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5.6909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>5.26</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>7.2439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>6.8129999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>10.91</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>5.0579999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table 2'!$M$2:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-350C-4E1E-B8E7-EDD94E3A5403}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="851064400"/>
-        <c:axId val="851066800"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="851064400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="851066800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="851066800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="851064400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBF9024-C5BF-91F9-01AB-718E390BFD52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4791,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C82D021-8F4C-4E71-986C-08A9033EF321}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4804,7 +3829,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4839,440 +3864,407 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1.913706441</v>
+      </c>
+      <c r="D2" s="49">
+        <v>1.2597043109999999</v>
+      </c>
+      <c r="E2" s="49">
+        <v>0.17739898100000001</v>
+      </c>
+      <c r="F2" s="49">
+        <v>2.9624553000000001E-2</v>
+      </c>
+      <c r="G2" s="49">
+        <v>0.15317287199999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>184</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1.794215745</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1.3143496750000001</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.19550811500000001</v>
+      </c>
+      <c r="F3" s="49">
+        <v>3.1498613000000002E-2</v>
+      </c>
+      <c r="G3" s="49">
+        <v>0.24493693999999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>217</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="56">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="C4" s="57">
+        <v>2.100406328</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1.1924919970000001</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0.36610933299999998</v>
+      </c>
+      <c r="F4" s="57">
+        <v>5.7670434999999999E-2</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0.14365261700000001</v>
+      </c>
+      <c r="H4" s="58">
+        <v>296</v>
+      </c>
+      <c r="I4" s="58">
+        <v>4.7</v>
+      </c>
+      <c r="J4" s="58">
+        <v>1.37</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="C5" s="49">
+        <v>2.6780350589999999</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1.2056830009999999</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0.52473931600000001</v>
+      </c>
+      <c r="F5" s="49">
+        <v>8.8962947000000001E-2</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.14514497700000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>234</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="C6" s="49">
+        <v>2.8426304889999998</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1.297982357</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0.62823688499999997</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.111312536</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.18143414799999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>205</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B7" s="4">
         <v>6.335</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C7" s="49">
         <v>2.5188978660000001</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D7" s="49">
         <v>1.259755832</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E7" s="49">
         <v>0.73122500000000001</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F7" s="49">
         <v>0.14449489400000001</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G7" s="49">
         <v>0.27149173799999998</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H7" s="5">
         <v>283</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I7" s="5">
         <v>2.7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J7" s="5">
         <v>3.79</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K7" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="C8" s="49">
+        <v>2.802097689</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1.271869846</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0.71991412600000004</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0.131122293</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.2181767</v>
+      </c>
+      <c r="H8" s="5">
+        <v>258</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="C9" s="49">
+        <v>3.2496000939999998</v>
+      </c>
+      <c r="D9" s="49">
+        <v>1.2246417000000001</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1.204860883</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0.13577767499999999</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0.21650597999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>290</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="C10" s="49">
+        <v>3.0539264519999998</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1.25686728</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.80109618100000002</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0.143091253</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0.219020838</v>
+      </c>
+      <c r="H10" s="5">
+        <v>256</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B11" s="5">
         <v>10.039999999999999</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C11" s="49">
         <v>3.8440824120000001</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D11" s="49">
         <v>1.284469147</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E11" s="49">
         <v>1.4567019729999999</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F11" s="49">
         <v>0.29113379499999997</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G11" s="49">
         <v>0.21290036500000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H11" s="5">
         <v>349</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.4620000000000002</v>
-      </c>
-      <c r="C4" s="49">
-        <v>1.913706441</v>
-      </c>
-      <c r="D4" s="49">
-        <v>1.2597043109999999</v>
-      </c>
-      <c r="E4" s="49">
-        <v>0.17739898100000001</v>
-      </c>
-      <c r="F4" s="49">
-        <v>2.9624553000000001E-2</v>
-      </c>
-      <c r="G4" s="49">
-        <v>0.15317287199999999</v>
-      </c>
-      <c r="H4" s="5">
-        <v>184</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>7.1559999999999997</v>
-      </c>
-      <c r="C5" s="49">
-        <v>3.2496000939999998</v>
-      </c>
-      <c r="D5" s="49">
-        <v>1.2246417000000001</v>
-      </c>
-      <c r="E5" s="49">
-        <v>1.204860883</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0.13577767499999999</v>
-      </c>
-      <c r="G5" s="49">
-        <v>0.21650597999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>290</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="C6" s="49">
-        <v>1.794215745</v>
-      </c>
-      <c r="D6" s="49">
-        <v>1.3143496750000001</v>
-      </c>
-      <c r="E6" s="49">
-        <v>0.19550811500000001</v>
-      </c>
-      <c r="F6" s="49">
-        <v>3.1498613000000002E-2</v>
-      </c>
-      <c r="G6" s="49">
-        <v>0.24493693999999999</v>
-      </c>
-      <c r="H6" s="5">
-        <v>217</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="62" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="C7" s="49">
-        <v>2.8426304889999998</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1.297982357</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0.62823688499999997</v>
-      </c>
-      <c r="F7" s="49">
-        <v>0.111312536</v>
-      </c>
-      <c r="G7" s="49">
-        <v>0.18143414799999999</v>
-      </c>
-      <c r="H7" s="5">
-        <v>205</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="5">
+    </row>
+    <row r="12" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.26</v>
-      </c>
-      <c r="C8" s="49">
-        <v>2.6780350589999999</v>
-      </c>
-      <c r="D8" s="49">
-        <v>1.2056830009999999</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0.52473931600000001</v>
-      </c>
-      <c r="F8" s="49">
-        <v>8.8962947000000001E-2</v>
-      </c>
-      <c r="G8" s="49">
-        <v>0.14514497700000001</v>
-      </c>
-      <c r="H8" s="5">
-        <v>234</v>
-      </c>
-      <c r="I8" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7.2439999999999998</v>
-      </c>
-      <c r="C9" s="49">
-        <v>3.0539264519999998</v>
-      </c>
-      <c r="D9" s="49">
-        <v>1.25686728</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0.80109618100000002</v>
-      </c>
-      <c r="F9" s="49">
-        <v>0.143091253</v>
-      </c>
-      <c r="G9" s="49">
-        <v>0.219020838</v>
-      </c>
-      <c r="H9" s="5">
-        <v>256</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="62" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6.8129999999999997</v>
-      </c>
-      <c r="C10" s="49">
-        <v>2.802097689</v>
-      </c>
-      <c r="D10" s="49">
-        <v>1.271869846</v>
-      </c>
-      <c r="E10" s="49">
-        <v>0.71991412600000004</v>
-      </c>
-      <c r="F10" s="49">
-        <v>0.131122293</v>
-      </c>
-      <c r="G10" s="49">
-        <v>0.2181767</v>
-      </c>
-      <c r="H10" s="5">
-        <v>258</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1.45</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="B12" s="7">
         <v>10.91</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C12" s="50">
         <v>3.8313944470000001</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D12" s="50">
         <v>1.266508312</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E12" s="50">
         <v>1.542485337</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F12" s="50">
         <v>0.46597889100000001</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G12" s="50">
         <v>0.20833141199999999</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="8">
         <v>5.6</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="62" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>5.0579999999999998</v>
-      </c>
-      <c r="C12" s="50">
-        <v>2.100406328</v>
-      </c>
-      <c r="D12" s="50">
-        <v>1.1924919970000001</v>
-      </c>
-      <c r="E12" s="50">
-        <v>0.36610933299999998</v>
-      </c>
-      <c r="F12" s="50">
-        <v>5.7670434999999999E-2</v>
-      </c>
-      <c r="G12" s="50">
-        <v>0.14365261700000001</v>
-      </c>
-      <c r="H12" s="8">
-        <v>296</v>
-      </c>
-      <c r="I12" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1.37</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>131</v>
       </c>
@@ -5289,7 +4281,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
